--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Walter:</t>
         </r>
@@ -41,7 +36,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nome cambiato. Nome originale: check_area_year.r</t>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -245,6 +240,9 @@
   </si>
   <si>
     <t>Integrato il controllo sul TL</t>
+  </si>
+  <si>
+    <t>eliminate pivot</t>
   </si>
 </sst>
 </file>
@@ -390,14 +388,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1056,7 +1054,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,7 +1065,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1346,16 +1344,25 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1427,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1054,7 +1054,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1106,9 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1368,6 +1371,9 @@
       </c>
       <c r="B34" t="s">
         <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>eliminate pivot</t>
+  </si>
+  <si>
+    <t>verificare che questo controllo sia applicato anche al TE</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,7 +1068,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1378,9 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1382,6 +1388,9 @@
       </c>
       <c r="B35" t="s">
         <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -243,6 +248,9 @@
   </si>
   <si>
     <t>eliminate pivot</t>
+  </si>
+  <si>
+    <t>aggiunto assTL.rda</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,7 +1073,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1114,12 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1057,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,7 +1073,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1125,9 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1062,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,7 +1068,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,6 +1392,9 @@
       <c r="B35" t="s">
         <v>32</v>
       </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1136,9 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>verificare che questo controllo sia applicato anche al TE</t>
+  </si>
+  <si>
+    <t>inderito assTL.rda</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1120,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1057,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1406,12 @@
       <c r="B36" t="s">
         <v>32</v>
       </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1413,6 +1419,9 @@
       </c>
       <c r="B37" t="s">
         <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1062,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,6 +1395,9 @@
       <c r="B35" t="s">
         <v>32</v>
       </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>
@@ -1411,6 +1409,12 @@
       <c r="B36" t="s">
         <v>32</v>
       </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1418,6 +1422,9 @@
       </c>
       <c r="B37" t="s">
         <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1065,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1076,7 +1071,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1401,9 @@
       <c r="B35" t="s">
         <v>32</v>
       </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>
@@ -1417,6 +1415,12 @@
       <c r="B36" t="s">
         <v>32</v>
       </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1424,6 +1428,9 @@
       </c>
       <c r="B37" t="s">
         <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1060,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1076,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1153,9 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -745,8 +745,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1430,9 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1591,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -1595,17 +1599,17 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1065,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1432,9 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" t="s">
         <v>65</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -239,9 +244,6 @@
     <t>check_area.r</t>
   </si>
   <si>
-    <t>Integrato il controllo sul TL</t>
-  </si>
-  <si>
     <t>eliminate pivot</t>
   </si>
   <si>
@@ -249,6 +251,9 @@
   </si>
   <si>
     <t>inderito assTL.rda</t>
+  </si>
+  <si>
+    <t>Integrato il controllo sul TL ed eliminato controllo su TD e TT</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,14 +1075,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,6 +1164,9 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1366,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1175,9 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1065,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1060,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,6 +1452,9 @@
       <c r="B38" t="s">
         <v>32</v>
       </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -249,6 +254,9 @@
   </si>
   <si>
     <t>Integrato il controllo sul TL ed eliminato controllo su TD e TT</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1079,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1189,9 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1188,6 +1199,9 @@
       </c>
       <c r="B10" t="s">
         <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -249,6 +254,9 @@
   </si>
   <si>
     <t>Integrato il controllo sul TL ed eliminato controllo su TD e TT</t>
+  </si>
+  <si>
+    <t>inserite funzioni del pacchetto MEDITS. Eliminate le funzioni convert_coordinates e calculate distance</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1079,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,6 +1189,9 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1188,6 +1199,12 @@
       </c>
       <c r="B10" t="s">
         <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1060,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D36" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,6 +1463,12 @@
       <c r="B39" t="s">
         <v>32</v>
       </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1470,6 +1476,9 @@
       </c>
       <c r="B40" t="s">
         <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1068,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,7 +1074,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,6 +1467,9 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1480,6 +1478,12 @@
       <c r="B39" t="s">
         <v>32</v>
       </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1487,6 +1491,9 @@
       </c>
       <c r="B40" t="s">
         <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,6 +1503,9 @@
       <c r="B41" t="s">
         <v>32</v>
       </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,6 +1514,9 @@
       <c r="B42" t="s">
         <v>32</v>
       </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,6 +1525,9 @@
       <c r="B43" t="s">
         <v>32</v>
       </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,6 +1536,9 @@
       <c r="B44" t="s">
         <v>32</v>
       </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1547,9 @@
       <c r="B45" t="s">
         <v>32</v>
       </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,6 +1558,9 @@
       <c r="B46" t="s">
         <v>32</v>
       </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1209,9 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1568,6 +1571,9 @@
       </c>
       <c r="B47" t="s">
         <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1214,9 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1063,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,9 +1577,6 @@
       <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1225,9 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1232,6 +1235,9 @@
       </c>
       <c r="B13" t="s">
         <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1247,9 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UtenteSebastien\Documenti\GitHub\RoME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E2EE5-856D-4A49-9066-3C81DB40B65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lista_file" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -257,12 +258,15 @@
   </si>
   <si>
     <t>inserite funzioni del pacchetto MEDITS. Eliminate le funzioni convert_coordinates e calculate distance</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,48 +761,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,14 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" customWidth="1"/>
@@ -1258,6 +1262,9 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -257,6 +252,9 @@
   </si>
   <si>
     <t>inserite funzioni del pacchetto MEDITS. Eliminate le funzioni convert_coordinates e calculate distance</t>
+  </si>
+  <si>
+    <t>Non esiste più</t>
   </si>
 </sst>
 </file>
@@ -753,8 +751,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,6 +1585,9 @@
       <c r="B47" t="s">
         <v>32</v>
       </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1594,16 +1596,23 @@
       <c r="B48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Non esiste più</t>
+  </si>
+  <si>
+    <t>Non serve più</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,11 +1616,15 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
-        <v>32</v>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1070,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1265,9 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1070,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,6 +1642,9 @@
       <c r="B52" t="s">
         <v>32</v>
       </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1276,9 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1287,9 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,6 +1298,9 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1309,9 @@
       <c r="B19" t="s">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,6 +1320,9 @@
       <c r="B20" t="s">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B59"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,6 +1331,9 @@
       <c r="B21" t="s">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1075,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1085,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,6 +1326,9 @@
       <c r="B21" t="s">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1664,6 +1662,9 @@
       </c>
       <c r="B52" t="s">
         <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,6 +1342,9 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Non serve più</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasciata in sospeso. </t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,6 +1356,12 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1663,6 +1672,9 @@
       <c r="B51" t="s">
         <v>32</v>
       </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1671,6 +1683,9 @@
       <c r="B52" t="s">
         <v>32</v>
       </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1678,6 +1693,9 @@
       </c>
       <c r="B53" t="s">
         <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -265,7 +260,10 @@
     <t>Non serve più</t>
   </si>
   <si>
-    <t xml:space="preserve">lasciata in sospeso. </t>
+    <t>non serve più</t>
+  </si>
+  <si>
+    <t>initializeErrors inserire in RoME; creata printError</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,11 +1354,8 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
+      <c r="C23" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,6 +1365,9 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1705,6 +1703,9 @@
       <c r="B54" t="s">
         <v>32</v>
       </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1713,6 +1714,12 @@
       <c r="B55" t="s">
         <v>32</v>
       </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1723,11 +1730,15 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>32</v>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>initializeErrors inserire in RoME; creata printError</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1416,9 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1420,6 +1426,9 @@
       </c>
       <c r="B30" t="s">
         <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>initializeErrors inserire in RoME; creata printError</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C58" activeCellId="1" sqref="C56 C58:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C58" activeCellId="1" sqref="C56 C58:C59"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,6 +1381,9 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1388,6 +1391,9 @@
       </c>
       <c r="B26" t="s">
         <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,6 +1403,9 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Documents\GitHub\RoME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A587DE-3D72-462D-A372-1ED7EABB6A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lista_file" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -269,12 +270,15 @@
   </si>
   <si>
     <t>initializeErrors inserire in RoME; creata printError</t>
+  </si>
+  <si>
+    <t>xw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,20 +1092,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1407,15 +1411,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1659,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1741,15 +1748,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Documents\GitHub\RoME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A587DE-3D72-462D-A372-1ED7EABB6A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20850" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="lista_file" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -278,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1092,20 +1091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1779,15 +1778,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>

--- a/lista_file.xlsx
+++ b/lista_file.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RoME\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20850" windowHeight="11205"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author>Walter</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>check_0_fieldsTA.r</t>
   </si>
@@ -1084,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,7 +1090,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,6 +1772,9 @@
       <c r="B58" t="s">
         <v>32</v>
       </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
